--- a/src/test/resources/students.xlsx
+++ b/src/test/resources/students.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14835" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="14835" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="1" r:id="rId1"/>
@@ -1145,8 +1145,8 @@
   </sheetPr>
   <dimension ref="B3:N4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1249,8 +1249,8 @@
   </sheetPr>
   <dimension ref="B3:M4"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
